--- a/backend/model_data/TrainingData_5cat_de.xlsx
+++ b/backend/model_data/TrainingData_5cat_de.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12917" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12918" uniqueCount="1573">
   <si>
     <t>User</t>
   </si>
@@ -4837,6 +4837,9 @@
   </si>
   <si>
     <t>Christian Laberrhabarber Du denkst zu kurz</t>
+  </si>
+  <si>
+    <t>Vielleicht nicht aus allem eine Glaubensfrage machen?</t>
   </si>
 </sst>
 </file>
@@ -5241,12 +5244,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S1059"/>
+  <dimension ref="B1:S1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="M1" colorId="8" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="G1" colorId="8" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O211" sqref="O211"/>
+      <selection pane="bottomLeft" activeCell="M1060" sqref="M1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46142,6 +46145,11 @@
         <v>1556</v>
       </c>
     </row>
+    <row r="1060" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M1060" t="s">
+        <v>1572</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/backend/model_data/TrainingData_5cat_de.xlsx
+++ b/backend/model_data/TrainingData_5cat_de.xlsx
@@ -4545,9 +4545,6 @@
     <t>Das Leben ist eine Pralinenschachtel</t>
   </si>
   <si>
-    <t>ja und einmal im Jahr gibt's dann große Spiele wo die restlichen 15 Länder Auserwählte hinschicken müssen, die dann bis auf den Tod kämpfen ;)</t>
-  </si>
-  <si>
     <t>tealc</t>
   </si>
   <si>
@@ -4816,6 +4813,9 @@
   </si>
   <si>
     <t>.* Wenn (du|Sie) .*  genauer (hingeschaut|geguckt|geschaut|hingesehen) .*</t>
+  </si>
+  <si>
+    <t>ja und einmal im Jahr gibt's dann große Spiele wo die restlichen 15 Länder Auserwählte hinschicken müssen, die dann bis auf den Tod kämpfen</t>
   </si>
 </sst>
 </file>
@@ -5223,9 +5223,9 @@
   <dimension ref="B1:U1041"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="M1" colorId="8" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A970" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O264" sqref="O264"/>
+      <selection pane="bottomLeft" activeCell="O987" sqref="O987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5287,10 +5287,10 @@
         <v>658</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>1560</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>1561</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>44</v>
@@ -5355,7 +5355,7 @@
         <v>153</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>97</v>
@@ -5364,7 +5364,7 @@
         <v>6</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
@@ -5408,16 +5408,16 @@
         <v>196</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>110</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
@@ -5461,10 +5461,10 @@
         <v>603</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>72</v>
@@ -5514,7 +5514,7 @@
         <v>63</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>6</v>
@@ -5523,7 +5523,7 @@
         <v>153</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>63</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>323</v>
@@ -5576,7 +5576,7 @@
         <v>174</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
@@ -5620,10 +5620,10 @@
         <v>302</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>24</v>
@@ -5632,7 +5632,7 @@
         <v>1125</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>110</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>420</v>
@@ -5688,7 +5688,7 @@
         <v>897</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
@@ -5726,16 +5726,16 @@
         <v>196</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>909</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
@@ -5773,7 +5773,7 @@
         <v>315</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>348</v>
@@ -5782,7 +5782,7 @@
         <v>686</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
@@ -5817,16 +5817,16 @@
         <v>132</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>1469</v>
@@ -5876,7 +5876,7 @@
         <v>337</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>921</v>
@@ -5929,7 +5929,7 @@
         <v>370</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>684</v>
@@ -5938,7 +5938,7 @@
         <v>112</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>323</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>596</v>
@@ -5991,7 +5991,7 @@
         <v>194</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
@@ -6035,7 +6035,7 @@
         <v>913</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>83</v>
@@ -6044,7 +6044,7 @@
         <v>684</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
         <v>1123</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>6</v>
@@ -6141,7 +6141,7 @@
         <v>1123</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>6</v>
@@ -6194,7 +6194,7 @@
         <v>909</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>910</v>
@@ -6247,7 +6247,7 @@
         <v>898</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>696</v>
@@ -6303,7 +6303,7 @@
         <v>1221</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>897</v>
@@ -6353,7 +6353,7 @@
         <v>603</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>910</v>
@@ -6406,7 +6406,7 @@
         <v>686</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>920</v>
@@ -6415,7 +6415,7 @@
         <v>69</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
@@ -6459,7 +6459,7 @@
         <v>686</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>920</v>
@@ -6468,7 +6468,7 @@
         <v>69</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
@@ -6512,7 +6512,7 @@
         <v>90</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>624</v>
@@ -6521,7 +6521,7 @@
         <v>97</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
@@ -6565,7 +6565,7 @@
         <v>83</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>180</v>
@@ -6574,7 +6574,7 @@
         <v>327</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
@@ -6618,7 +6618,7 @@
         <v>348</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>78</v>
@@ -6671,7 +6671,7 @@
         <v>47</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>251</v>
@@ -6680,7 +6680,7 @@
         <v>105</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
         <v>898</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>348</v>
@@ -6777,7 +6777,7 @@
         <v>791</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>904</v>
@@ -6830,7 +6830,7 @@
         <v>323</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>684</v>
@@ -6883,7 +6883,7 @@
         <v>90</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>686</v>
@@ -6936,7 +6936,7 @@
         <v>686</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>904</v>
@@ -6989,7 +6989,7 @@
         <v>686</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>5</v>
@@ -7042,7 +7042,7 @@
         <v>370</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>603</v>
@@ -7051,7 +7051,7 @@
         <v>420</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>194</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>614</v>
@@ -7104,7 +7104,7 @@
         <v>288</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
@@ -7148,7 +7148,7 @@
         <v>904</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>194</v>
@@ -7201,7 +7201,7 @@
         <v>112</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>94</v>
@@ -7210,7 +7210,7 @@
         <v>5</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
@@ -7254,7 +7254,7 @@
         <v>288</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>105</v>
@@ -7263,7 +7263,7 @@
         <v>180</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
@@ -7307,7 +7307,7 @@
         <v>113</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>545</v>
@@ -7316,7 +7316,7 @@
         <v>25</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
@@ -7363,7 +7363,7 @@
         <v>194</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>370</v>
@@ -7372,7 +7372,7 @@
         <v>324</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
@@ -7475,7 +7475,7 @@
         <v>702</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>251</v>
@@ -7528,7 +7528,7 @@
         <v>132</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>194</v>
@@ -7584,7 +7584,7 @@
         <v>132</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>194</v>
@@ -7640,7 +7640,7 @@
         <v>302</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>6</v>
@@ -7699,10 +7699,10 @@
         <v>504</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>337</v>
@@ -7755,7 +7755,7 @@
         <v>544</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>251</v>
@@ -7764,7 +7764,7 @@
         <v>288</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
@@ -7811,7 +7811,7 @@
         <v>686</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>63</v>
@@ -7820,7 +7820,7 @@
         <v>105</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
@@ -7867,7 +7867,7 @@
         <v>324</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>898</v>
@@ -7923,7 +7923,7 @@
         <v>702</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>97</v>
@@ -7932,7 +7932,7 @@
         <v>791</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
@@ -7979,7 +7979,7 @@
         <v>105</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>90</v>
@@ -7988,7 +7988,7 @@
         <v>348</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
@@ -8035,16 +8035,16 @@
         <v>530</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>69</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
@@ -8088,10 +8088,10 @@
         <v>302</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>196</v>
@@ -8100,7 +8100,7 @@
         <v>110</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
@@ -8147,7 +8147,7 @@
         <v>1469</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>196</v>
@@ -8156,7 +8156,7 @@
         <v>696</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
@@ -8200,10 +8200,10 @@
         <v>302</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>196</v>
@@ -8256,16 +8256,16 @@
         <v>132</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>113</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>153</v>
@@ -8312,7 +8312,7 @@
         <v>548</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>83</v>
@@ -8321,7 +8321,7 @@
         <v>603</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>251</v>
@@ -8374,7 +8374,7 @@
         <v>503</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>319</v>
@@ -8430,13 +8430,13 @@
         <v>370</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.2">
@@ -8483,13 +8483,13 @@
         <v>1123</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>180</v>
@@ -8539,13 +8539,13 @@
         <v>904</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>503</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>63</v>
@@ -8592,16 +8592,16 @@
         <v>132</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>702</v>
@@ -8654,10 +8654,10 @@
         <v>790</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>346</v>
@@ -8713,7 +8713,7 @@
         <v>1222</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>112</v>
@@ -8769,7 +8769,7 @@
         <v>1222</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>262</v>
@@ -8816,7 +8816,7 @@
         <v>132</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>78</v>
@@ -8825,7 +8825,7 @@
         <v>503</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U66" s="1" t="s">
         <v>288</v>
@@ -8878,10 +8878,10 @@
         <v>78</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>288</v>
@@ -8928,7 +8928,7 @@
         <v>132</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>342</v>
@@ -8937,7 +8937,7 @@
         <v>503</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>262</v>
@@ -8993,7 +8993,7 @@
         <v>921</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>47</v>
@@ -9043,7 +9043,7 @@
         <v>346</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>47</v>
@@ -9099,16 +9099,16 @@
         <v>83</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>174</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.2">
@@ -9155,13 +9155,13 @@
         <v>83</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>503</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>1221</v>
@@ -9205,16 +9205,16 @@
         <v>132</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>6</v>
@@ -9258,16 +9258,16 @@
         <v>132</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>119</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>6</v>
@@ -9311,16 +9311,16 @@
         <v>132</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>63</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>596</v>
@@ -9364,16 +9364,16 @@
         <v>132</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>342</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>6</v>
@@ -9417,16 +9417,16 @@
         <v>548</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>15</v>
@@ -9470,16 +9470,16 @@
         <v>132</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>94</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>24</v>
@@ -9526,7 +9526,7 @@
         <v>196</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>596</v>
@@ -9579,7 +9579,7 @@
         <v>83</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>78</v>
@@ -9588,7 +9588,7 @@
         <v>83</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.2">
@@ -9635,10 +9635,10 @@
         <v>78</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>180</v>
@@ -9682,16 +9682,16 @@
         <v>548</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>78</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>54</v>
@@ -9735,7 +9735,7 @@
         <v>548</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>5</v>
@@ -9744,7 +9744,7 @@
         <v>503</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>48</v>
@@ -9794,10 +9794,10 @@
         <v>113</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>5</v>
@@ -9841,16 +9841,16 @@
         <v>548</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>5</v>
@@ -9894,16 +9894,16 @@
         <v>548</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>5</v>
@@ -9950,7 +9950,7 @@
         <v>110</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>180</v>
@@ -9959,7 +9959,7 @@
         <v>370</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.2">
@@ -10006,7 +10006,7 @@
         <v>110</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>153</v>
@@ -10015,7 +10015,7 @@
         <v>15</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.2">
@@ -10059,16 +10059,16 @@
         <v>132</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U89" s="1" t="s">
         <v>702</v>
@@ -10115,16 +10115,16 @@
         <v>132</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U90" s="1" t="s">
         <v>904</v>
@@ -10171,10 +10171,10 @@
         <v>345</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>24</v>
@@ -10227,10 +10227,10 @@
         <v>345</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>790</v>
@@ -10286,7 +10286,7 @@
         <v>251</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>624</v>
@@ -10295,7 +10295,7 @@
         <v>25</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.2">
@@ -10401,10 +10401,10 @@
         <v>15</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="U95" s="1" t="s">
         <v>69</v>
@@ -10451,16 +10451,16 @@
         <v>132</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U96" s="1" t="s">
         <v>23</v>
@@ -10507,16 +10507,16 @@
         <v>132</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U97" s="1" t="s">
         <v>83</v>
@@ -10563,16 +10563,16 @@
         <v>132</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U98" s="1" t="s">
         <v>83</v>
@@ -10619,16 +10619,16 @@
         <v>548</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>69</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U99" s="1" t="s">
         <v>97</v>
@@ -10675,16 +10675,16 @@
         <v>548</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R100" s="1" t="s">
         <v>251</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U100" s="1" t="s">
         <v>94</v>
@@ -10731,16 +10731,16 @@
         <v>132</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>194</v>
@@ -10787,16 +10787,16 @@
         <v>132</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R102" s="1" t="s">
         <v>342</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U102" s="1" t="s">
         <v>194</v>
@@ -10843,16 +10843,16 @@
         <v>132</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R103" s="1" t="s">
         <v>315</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>113</v>
@@ -10899,7 +10899,7 @@
         <v>132</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>5</v>
@@ -10908,7 +10908,7 @@
         <v>503</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>24</v>
@@ -10955,16 +10955,16 @@
         <v>132</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="R105" s="1" t="s">
         <v>182</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>702</v>
@@ -11014,7 +11014,7 @@
         <v>63</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>6</v>
@@ -11070,7 +11070,7 @@
         <v>23</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>25</v>
@@ -11126,7 +11126,7 @@
         <v>23</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S108" s="1" t="s">
         <v>25</v>
@@ -11135,7 +11135,7 @@
         <v>72</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="109" spans="2:21" x14ac:dyDescent="0.2">
@@ -11182,7 +11182,7 @@
         <v>83</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S109" s="1" t="s">
         <v>503</v>
@@ -11191,7 +11191,7 @@
         <v>119</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="110" spans="2:21" x14ac:dyDescent="0.2">
@@ -11238,7 +11238,7 @@
         <v>97</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S110" s="1" t="s">
         <v>370</v>
@@ -11294,7 +11294,7 @@
         <v>83</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S111" s="1" t="s">
         <v>1469</v>
@@ -11303,7 +11303,7 @@
         <v>113</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="112" spans="2:21" x14ac:dyDescent="0.2">
@@ -11347,16 +11347,16 @@
         <v>548</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R112" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U112" s="1" t="s">
         <v>48</v>
@@ -11403,16 +11403,16 @@
         <v>132</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R113" s="1" t="s">
         <v>72</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>78</v>
@@ -11462,16 +11462,16 @@
         <v>25</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>94</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="115" spans="2:21" x14ac:dyDescent="0.2">
@@ -11571,16 +11571,16 @@
         <v>132</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>920</v>
@@ -11630,16 +11630,16 @@
         <v>83</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="T117" s="1" t="s">
         <v>63</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.2">
@@ -11686,16 +11686,16 @@
         <v>324</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T118" s="1" t="s">
         <v>78</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="119" spans="2:21" x14ac:dyDescent="0.2">
@@ -11742,7 +11742,7 @@
         <v>97</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>1222</v>
@@ -11801,7 +11801,7 @@
         <v>63</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="T120" s="1" t="s">
         <v>83</v>
@@ -11857,7 +11857,7 @@
         <v>69</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="T121" s="1" t="s">
         <v>686</v>
@@ -11910,7 +11910,7 @@
         <v>105</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>503</v>
@@ -11966,7 +11966,7 @@
         <v>112</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>1222</v>
@@ -12022,10 +12022,10 @@
         <v>196</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="T124" s="1" t="s">
         <v>346</v>
@@ -12078,7 +12078,7 @@
         <v>180</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>6</v>
@@ -12134,7 +12134,7 @@
         <v>180</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>319</v>
@@ -12190,7 +12190,7 @@
         <v>112</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S127" s="1" t="s">
         <v>324</v>
@@ -12199,7 +12199,7 @@
         <v>180</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="128" spans="2:21" x14ac:dyDescent="0.2">
@@ -12249,7 +12249,7 @@
         <v>920</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="T128" s="1" t="s">
         <v>702</v>
@@ -12302,10 +12302,10 @@
         <v>196</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T129" s="1" t="s">
         <v>545</v>
@@ -12358,7 +12358,7 @@
         <v>420</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>63</v>
@@ -12417,7 +12417,7 @@
         <v>503</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T131" s="1" t="s">
         <v>696</v>
@@ -12470,7 +12470,7 @@
         <v>105</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>83</v>
@@ -12526,7 +12526,7 @@
         <v>348</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>78</v>
@@ -12582,7 +12582,7 @@
         <v>105</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>54</v>
@@ -12635,7 +12635,7 @@
         <v>262</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S135" s="1" t="s">
         <v>5</v>
@@ -12688,7 +12688,7 @@
         <v>603</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S136" s="1" t="s">
         <v>78</v>
@@ -12735,16 +12735,16 @@
         <v>132</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>94</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="U137" s="1" t="s">
         <v>196</v>
@@ -12791,10 +12791,10 @@
         <v>6</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="T138" s="1" t="s">
         <v>23</v>
@@ -12841,13 +12841,13 @@
         <v>548</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T139" s="1" t="s">
         <v>1125</v>
@@ -12894,10 +12894,10 @@
         <v>345</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S140" s="1" t="s">
         <v>6</v>
@@ -12997,10 +12997,10 @@
         <v>323</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="T142" s="1" t="s">
         <v>346</v>
@@ -13059,7 +13059,7 @@
         <v>503</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="U143" s="1" t="s">
         <v>105</v>
@@ -13106,16 +13106,16 @@
         <v>548</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>196</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U144" s="1" t="s">
         <v>5</v>
@@ -13224,7 +13224,7 @@
         <v>97</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T146" s="1" t="s">
         <v>503</v>
@@ -13274,16 +13274,16 @@
         <v>548</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="U147" s="1" t="s">
         <v>72</v>
@@ -13333,7 +13333,7 @@
         <v>503</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S148" s="1" t="s">
         <v>54</v>
@@ -13342,7 +13342,7 @@
         <v>153</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="149" spans="2:21" x14ac:dyDescent="0.2">
@@ -13389,7 +13389,7 @@
         <v>5</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="T149" s="1" t="s">
         <v>791</v>
@@ -13442,7 +13442,7 @@
         <v>90</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S150" s="1" t="s">
         <v>180</v>
@@ -13451,7 +13451,7 @@
         <v>23</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="151" spans="2:21" x14ac:dyDescent="0.2">
@@ -13498,7 +13498,7 @@
         <v>910</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S151" s="1" t="s">
         <v>530</v>
@@ -13551,13 +13551,13 @@
         <v>548</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T152" s="1" t="s">
         <v>503</v>
@@ -13610,7 +13610,7 @@
         <v>684</v>
       </c>
       <c r="R153" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="S153" s="1" t="s">
         <v>113</v>
@@ -13663,7 +13663,7 @@
         <v>548</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R154" s="1" t="s">
         <v>503</v>
@@ -13719,16 +13719,16 @@
         <v>132</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R155" s="1" t="s">
         <v>113</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U155" s="1" t="s">
         <v>702</v>
@@ -13775,16 +13775,16 @@
         <v>548</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="U156" s="1" t="s">
         <v>83</v>
@@ -13831,16 +13831,16 @@
         <v>132</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R157" s="1" t="s">
         <v>83</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>112</v>
@@ -13887,16 +13887,16 @@
         <v>548</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="R158" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U158" s="1" t="s">
         <v>180</v>
@@ -13943,7 +13943,7 @@
         <v>548</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R159" s="1" t="s">
         <v>24</v>
@@ -13952,7 +13952,7 @@
         <v>1222</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U159" s="1" t="s">
         <v>5</v>
@@ -13999,16 +13999,16 @@
         <v>132</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>94</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U160" s="1" t="s">
         <v>97</v>
@@ -14055,16 +14055,16 @@
         <v>132</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>94</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U161" s="1" t="s">
         <v>97</v>
@@ -14117,7 +14117,7 @@
         <v>25</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="T162" s="1" t="s">
         <v>503</v>
@@ -14173,7 +14173,7 @@
         <v>503</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T163" s="1" t="s">
         <v>110</v>
@@ -14226,7 +14226,7 @@
         <v>899</v>
       </c>
       <c r="R164" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="S164" s="1" t="s">
         <v>1222</v>
@@ -14279,7 +14279,7 @@
         <v>97</v>
       </c>
       <c r="R165" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S165" s="1" t="s">
         <v>319</v>
@@ -14329,16 +14329,16 @@
         <v>548</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="R166" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U166" s="1" t="s">
         <v>97</v>
@@ -14385,7 +14385,7 @@
         <v>1222</v>
       </c>
       <c r="R167" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="S167" s="1" t="s">
         <v>25</v>
@@ -14438,7 +14438,7 @@
         <v>25</v>
       </c>
       <c r="R168" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S168" s="1" t="s">
         <v>1222</v>
@@ -14500,7 +14500,7 @@
         <v>153</v>
       </c>
       <c r="U169" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="170" spans="2:21" x14ac:dyDescent="0.2">
@@ -14547,7 +14547,7 @@
         <v>5</v>
       </c>
       <c r="R170" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S170" s="1" t="s">
         <v>6</v>
@@ -14603,7 +14603,7 @@
         <v>25</v>
       </c>
       <c r="R171" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S171" s="1" t="s">
         <v>180</v>
@@ -14659,7 +14659,7 @@
         <v>196</v>
       </c>
       <c r="R172" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S172" s="1" t="s">
         <v>24</v>
@@ -14715,7 +14715,7 @@
         <v>196</v>
       </c>
       <c r="R173" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S173" s="1" t="s">
         <v>110</v>
@@ -14771,7 +14771,7 @@
         <v>110</v>
       </c>
       <c r="R174" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S174" s="1" t="s">
         <v>47</v>
@@ -14780,7 +14780,7 @@
         <v>113</v>
       </c>
       <c r="U174" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="175" spans="2:21" x14ac:dyDescent="0.2">
@@ -14827,7 +14827,7 @@
         <v>113</v>
       </c>
       <c r="R175" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S175" s="1" t="s">
         <v>47</v>
@@ -14836,7 +14836,7 @@
         <v>113</v>
       </c>
       <c r="U175" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="176" spans="2:21" x14ac:dyDescent="0.2">
@@ -14874,7 +14874,7 @@
         <v>417</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="P176" s="1" t="s">
         <v>345</v>
@@ -14883,7 +14883,7 @@
         <v>348</v>
       </c>
       <c r="R176" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S176" s="1" t="s">
         <v>47</v>
@@ -14892,7 +14892,7 @@
         <v>180</v>
       </c>
       <c r="U176" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="177" spans="2:21" x14ac:dyDescent="0.2">
@@ -14939,7 +14939,7 @@
         <v>110</v>
       </c>
       <c r="R177" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S177" s="1" t="s">
         <v>47</v>
@@ -14948,7 +14948,7 @@
         <v>180</v>
       </c>
       <c r="U177" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="178" spans="2:21" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
         <v>411</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="P178" s="1" t="s">
         <v>453</v>
@@ -14995,7 +14995,7 @@
         <v>63</v>
       </c>
       <c r="R178" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S178" s="1" t="s">
         <v>504</v>
@@ -15004,7 +15004,7 @@
         <v>420</v>
       </c>
       <c r="U178" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="179" spans="2:21" x14ac:dyDescent="0.2">
@@ -15051,7 +15051,7 @@
         <v>6</v>
       </c>
       <c r="R179" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S179" s="1" t="s">
         <v>54</v>
@@ -15060,7 +15060,7 @@
         <v>420</v>
       </c>
       <c r="U179" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="180" spans="2:21" x14ac:dyDescent="0.2">
@@ -15104,10 +15104,10 @@
         <v>682</v>
       </c>
       <c r="R180" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T180" s="1" t="s">
         <v>180</v>
@@ -15157,10 +15157,10 @@
         <v>72</v>
       </c>
       <c r="R181" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="S181" s="1" t="s">
         <v>1547</v>
-      </c>
-      <c r="S181" s="1" t="s">
-        <v>1548</v>
       </c>
       <c r="T181" s="1" t="s">
         <v>47</v>
@@ -15213,7 +15213,7 @@
         <v>72</v>
       </c>
       <c r="R182" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S182" s="1" t="s">
         <v>174</v>
@@ -15269,7 +15269,7 @@
         <v>180</v>
       </c>
       <c r="R183" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S183" s="1" t="s">
         <v>24</v>
@@ -15328,7 +15328,7 @@
         <v>5</v>
       </c>
       <c r="S184" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="T184" s="1" t="s">
         <v>503</v>
@@ -15381,10 +15381,10 @@
         <v>47</v>
       </c>
       <c r="R185" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S185" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T185" s="1" t="s">
         <v>288</v>
@@ -15428,7 +15428,7 @@
         <v>92</v>
       </c>
       <c r="O186" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="P186" s="1" t="s">
         <v>453</v>
@@ -15437,13 +15437,13 @@
         <v>94</v>
       </c>
       <c r="R186" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S186" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="U186" s="1" t="s">
         <v>686</v>
@@ -15493,7 +15493,7 @@
         <v>48</v>
       </c>
       <c r="R187" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S187" s="1" t="s">
         <v>702</v>
@@ -15502,7 +15502,7 @@
         <v>110</v>
       </c>
       <c r="U187" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="188" spans="2:21" x14ac:dyDescent="0.2">
@@ -15549,10 +15549,10 @@
         <v>5</v>
       </c>
       <c r="R188" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S188" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="T188" s="1" t="s">
         <v>153</v>
@@ -15776,7 +15776,7 @@
         <v>319</v>
       </c>
       <c r="S192" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="T192" s="1" t="s">
         <v>1190</v>
@@ -15832,7 +15832,7 @@
         <v>319</v>
       </c>
       <c r="S193" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="T193" s="1" t="s">
         <v>1221</v>
@@ -15888,7 +15888,7 @@
         <v>1190</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="T194" s="1" t="s">
         <v>920</v>
@@ -15997,7 +15997,7 @@
         <v>63</v>
       </c>
       <c r="R196" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="S196" s="1" t="s">
         <v>1469</v>
@@ -16053,7 +16053,7 @@
         <v>196</v>
       </c>
       <c r="R197" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S197" s="1" t="s">
         <v>105</v>
@@ -16109,7 +16109,7 @@
         <v>420</v>
       </c>
       <c r="R198" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="S198" s="1" t="s">
         <v>503</v>
@@ -16162,10 +16162,10 @@
         <v>420</v>
       </c>
       <c r="R199" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="S199" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T199" s="1" t="s">
         <v>83</v>
@@ -16218,7 +16218,7 @@
         <v>112</v>
       </c>
       <c r="R200" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="S200" s="1" t="s">
         <v>97</v>
@@ -16274,7 +16274,7 @@
         <v>105</v>
       </c>
       <c r="R201" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S201" s="1" t="s">
         <v>319</v>
@@ -16330,7 +16330,7 @@
         <v>97</v>
       </c>
       <c r="R202" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S202" s="1" t="s">
         <v>686</v>
@@ -16386,7 +16386,7 @@
         <v>63</v>
       </c>
       <c r="R203" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S203" s="1" t="s">
         <v>113</v>
@@ -16395,7 +16395,7 @@
         <v>503</v>
       </c>
       <c r="U203" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="204" spans="2:21" x14ac:dyDescent="0.2">
@@ -16442,7 +16442,7 @@
         <v>324</v>
       </c>
       <c r="R204" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S204" s="1" t="s">
         <v>78</v>
@@ -16451,7 +16451,7 @@
         <v>196</v>
       </c>
       <c r="U204" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="205" spans="2:21" x14ac:dyDescent="0.2">
@@ -16770,7 +16770,7 @@
         <v>548</v>
       </c>
       <c r="Q212" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R212" s="1" t="s">
         <v>110</v>
@@ -16779,7 +16779,7 @@
         <v>503</v>
       </c>
       <c r="T212" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="U212" s="1" t="s">
         <v>5</v>
@@ -16947,7 +16947,7 @@
         <v>548</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="R215" s="1" t="s">
         <v>319</v>
@@ -17141,7 +17141,7 @@
         <v>196</v>
       </c>
       <c r="R219" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="S219" s="1" t="s">
         <v>174</v>
@@ -17244,7 +17244,7 @@
         <v>696</v>
       </c>
       <c r="R221" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S221" s="1" t="s">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         <v>72</v>
       </c>
       <c r="U221" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="222" spans="2:21" x14ac:dyDescent="0.2">
@@ -17426,7 +17426,7 @@
         <v>508</v>
       </c>
       <c r="O225" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="P225" s="1" t="s">
         <v>132</v>
@@ -17482,10 +17482,10 @@
         <v>6</v>
       </c>
       <c r="S226" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T226" s="1" t="s">
         <v>1549</v>
-      </c>
-      <c r="T226" s="1" t="s">
-        <v>1550</v>
       </c>
       <c r="U226" s="1" t="s">
         <v>78</v>
@@ -17535,16 +17535,16 @@
         <v>132</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="R227" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S227" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T227" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="U227" s="1" t="s">
         <v>23</v>
@@ -17594,13 +17594,13 @@
         <v>548</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="R228" s="1" t="s">
         <v>196</v>
       </c>
       <c r="S228" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="T228" s="1" t="s">
         <v>503</v>
@@ -17656,7 +17656,7 @@
         <v>25</v>
       </c>
       <c r="R229" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="S229" s="1" t="s">
         <v>174</v>
@@ -17715,7 +17715,7 @@
         <v>25</v>
       </c>
       <c r="R230" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S230" s="1" t="s">
         <v>1221</v>
@@ -17724,7 +17724,7 @@
         <v>15</v>
       </c>
       <c r="U230" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="231" spans="2:21" x14ac:dyDescent="0.2">
@@ -17774,7 +17774,7 @@
         <v>23</v>
       </c>
       <c r="R231" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S231" s="1" t="s">
         <v>63</v>
@@ -17783,7 +17783,7 @@
         <v>83</v>
       </c>
       <c r="U231" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="232" spans="2:21" x14ac:dyDescent="0.2">
@@ -17874,7 +17874,7 @@
         <v>548</v>
       </c>
       <c r="Q233" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R233" s="1" t="s">
         <v>1221</v>
@@ -17883,7 +17883,7 @@
         <v>503</v>
       </c>
       <c r="T233" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="U233" s="1" t="s">
         <v>251</v>
@@ -18559,7 +18559,7 @@
         <v>15</v>
       </c>
       <c r="R250" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S250" s="1" t="s">
         <v>112</v>
@@ -18568,7 +18568,7 @@
         <v>262</v>
       </c>
       <c r="U250" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="251" spans="2:21" x14ac:dyDescent="0.2">
@@ -19055,7 +19055,7 @@
         <v>64</v>
       </c>
       <c r="O264" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="P264" s="1" t="s">
         <v>453</v>
@@ -19309,7 +19309,7 @@
         <v>342</v>
       </c>
       <c r="R271" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="S271" s="1" t="s">
         <v>180</v>
@@ -20409,7 +20409,7 @@
         <v>342</v>
       </c>
       <c r="R302" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="S302" s="1" t="s">
         <v>83</v>
@@ -20418,7 +20418,7 @@
         <v>112</v>
       </c>
       <c r="U302" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="303" spans="4:21" x14ac:dyDescent="0.2">
@@ -20728,7 +20728,7 @@
         <v>504</v>
       </c>
       <c r="T310" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="U310" s="1" t="s">
         <v>319</v>
@@ -20787,7 +20787,7 @@
         <v>504</v>
       </c>
       <c r="T311" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="U311" s="1" t="s">
         <v>319</v>
@@ -20846,7 +20846,7 @@
         <v>504</v>
       </c>
       <c r="T312" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="U312" s="1" t="s">
         <v>319</v>
@@ -21102,16 +21102,16 @@
         <v>132</v>
       </c>
       <c r="Q317" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="R317" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S317" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="T317" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="U317" s="1" t="s">
         <v>319</v>
@@ -44747,7 +44747,7 @@
         <v>70</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>700</v>
@@ -44780,7 +44780,7 @@
         <v>1454</v>
       </c>
       <c r="O987" t="s">
-        <v>1474</v>
+        <v>1564</v>
       </c>
       <c r="P987" s="1" t="s">
         <v>158</v>
@@ -44791,7 +44791,7 @@
         <v>70</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>700</v>
@@ -44824,7 +44824,7 @@
         <v>1454</v>
       </c>
       <c r="O988" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="P988" s="1" t="s">
         <v>453</v>
@@ -44835,7 +44835,7 @@
         <v>70</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D989" s="1" t="s">
         <v>700</v>
@@ -44868,7 +44868,7 @@
         <v>1454</v>
       </c>
       <c r="O989" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="P989" s="1" t="s">
         <v>132</v>
@@ -44879,7 +44879,7 @@
         <v>70</v>
       </c>
       <c r="C990" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D990" s="1" t="s">
         <v>1366</v>
@@ -44909,10 +44909,10 @@
         <v>840</v>
       </c>
       <c r="M990" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="O990" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="P990" s="1" t="s">
         <v>828</v>
@@ -44923,7 +44923,7 @@
         <v>70</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D991" s="1" t="s">
         <v>1366</v>
@@ -44953,13 +44953,13 @@
         <v>253</v>
       </c>
       <c r="M991" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="N991" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="O991" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="P991" s="1" t="s">
         <v>158</v>
@@ -44970,7 +44970,7 @@
         <v>70</v>
       </c>
       <c r="C992" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D992" s="1" t="s">
         <v>1366</v>
@@ -44979,7 +44979,7 @@
         <v>26</v>
       </c>
       <c r="F992" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G992" s="3" t="s">
         <v>1439</v>
@@ -45000,13 +45000,13 @@
         <v>107</v>
       </c>
       <c r="M992" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="N992" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="O992" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="P992" s="1" t="s">
         <v>911</v>
@@ -45026,13 +45026,13 @@
         <v>461</v>
       </c>
       <c r="M993" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N993" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="O993" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="P993" s="1" t="s">
         <v>462</v>
@@ -45052,10 +45052,10 @@
         <v>285</v>
       </c>
       <c r="M994" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="O994" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="P994" s="1" t="s">
         <v>30</v>
@@ -45075,10 +45075,10 @@
         <v>1359</v>
       </c>
       <c r="M995" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="O995" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="P995" s="1" t="s">
         <v>340</v>
@@ -45095,13 +45095,13 @@
         <v>198</v>
       </c>
       <c r="L996" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="M996" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="O996" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="P996" s="1" t="s">
         <v>340</v>
@@ -45112,19 +45112,19 @@
         <v>902</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M997" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N997" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="O997" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="P997" s="1" t="s">
         <v>132</v>
@@ -45135,19 +45135,19 @@
         <v>902</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M998" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N998" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="O998" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="P998" s="1" t="s">
         <v>30</v>
@@ -45158,19 +45158,19 @@
         <v>902</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D999" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M999" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N999" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="O999" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1000" spans="2:16" x14ac:dyDescent="0.2">
@@ -45178,19 +45178,19 @@
         <v>902</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1000" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1000" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1000" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="O1000" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1001" spans="2:16" x14ac:dyDescent="0.2">
@@ -45198,16 +45198,16 @@
         <v>902</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1001" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1001" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="O1001" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1002" spans="2:16" x14ac:dyDescent="0.2">
@@ -45215,16 +45215,16 @@
         <v>902</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1002" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1002" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="O1002" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1003" spans="2:16" x14ac:dyDescent="0.2">
@@ -45232,16 +45232,16 @@
         <v>902</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1003" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1003" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="O1003" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1004" spans="2:16" x14ac:dyDescent="0.2">
@@ -45249,19 +45249,19 @@
         <v>902</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1004" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1004" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1004" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="O1004" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1005" spans="2:16" x14ac:dyDescent="0.2">
@@ -45269,19 +45269,19 @@
         <v>902</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1005" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1005" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1005" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="O1005" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1006" spans="2:16" x14ac:dyDescent="0.2">
@@ -45289,19 +45289,19 @@
         <v>902</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1006" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1006" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1006" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="O1006" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1007" spans="2:16" x14ac:dyDescent="0.2">
@@ -45309,19 +45309,19 @@
         <v>902</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1007" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1007" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1007" s="1" t="s">
         <v>74</v>
       </c>
       <c r="O1007" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1008" spans="2:16" x14ac:dyDescent="0.2">
@@ -45329,19 +45329,19 @@
         <v>902</v>
       </c>
       <c r="C1008" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1008" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1008" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1008" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="O1008" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1009" spans="2:16" x14ac:dyDescent="0.2">
@@ -45349,19 +45349,19 @@
         <v>902</v>
       </c>
       <c r="C1009" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1009" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1009" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1009" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="O1009" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1010" spans="2:16" x14ac:dyDescent="0.2">
@@ -45369,19 +45369,19 @@
         <v>902</v>
       </c>
       <c r="C1010" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1010" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1010" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1010" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="O1010" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1011" spans="2:16" x14ac:dyDescent="0.2">
@@ -45389,19 +45389,19 @@
         <v>902</v>
       </c>
       <c r="C1011" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1011" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1011" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1011" s="1" t="s">
         <v>1211</v>
       </c>
       <c r="O1011" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1012" spans="2:16" x14ac:dyDescent="0.2">
@@ -45409,19 +45409,19 @@
         <v>902</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1012" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1012" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1012" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="O1012" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1013" spans="2:16" x14ac:dyDescent="0.2">
@@ -45429,19 +45429,19 @@
         <v>902</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1013" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1013" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1013" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="O1013" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1014" spans="2:16" x14ac:dyDescent="0.2">
@@ -45449,19 +45449,19 @@
         <v>902</v>
       </c>
       <c r="C1014" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1014" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1014" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1014" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="O1014" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1015" spans="2:16" x14ac:dyDescent="0.2">
@@ -45469,19 +45469,19 @@
         <v>902</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1015" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1015" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1015" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="O1015" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1016" spans="2:16" x14ac:dyDescent="0.2">
@@ -45489,19 +45489,19 @@
         <v>902</v>
       </c>
       <c r="C1016" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1016" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1016" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N1016" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="O1016" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1017" spans="2:16" x14ac:dyDescent="0.2">
@@ -45509,16 +45509,16 @@
         <v>902</v>
       </c>
       <c r="C1017" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D1017" s="1" t="s">
         <v>700</v>
       </c>
       <c r="M1017" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="O1017" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1018" spans="2:16" x14ac:dyDescent="0.2">
@@ -45526,29 +45526,29 @@
         <v>70</v>
       </c>
       <c r="C1018" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D1018" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="M1018" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="O1018" t="s">
         <v>1514</v>
-      </c>
-      <c r="O1018" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="1019" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M1019" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O1019" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1020" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1020" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D1020" s="1" t="s">
         <v>198</v>
@@ -45557,10 +45557,10 @@
         <v>74</v>
       </c>
       <c r="M1020" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O1020" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1021" spans="2:16" x14ac:dyDescent="0.2">
@@ -45568,10 +45568,10 @@
         <v>74</v>
       </c>
       <c r="M1021" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O1021" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1022" spans="2:16" x14ac:dyDescent="0.2">
@@ -45579,10 +45579,10 @@
         <v>77</v>
       </c>
       <c r="M1022" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O1022" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1023" spans="2:16" x14ac:dyDescent="0.2">
@@ -45590,7 +45590,7 @@
         <v>902</v>
       </c>
       <c r="C1023" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D1023" s="1" t="s">
         <v>198</v>
@@ -45620,10 +45620,10 @@
         <v>253</v>
       </c>
       <c r="M1023" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="O1023" s="4" t="s">
         <v>1523</v>
-      </c>
-      <c r="O1023" s="4" t="s">
-        <v>1524</v>
       </c>
       <c r="P1023" s="1" t="s">
         <v>158</v>
@@ -45634,7 +45634,7 @@
         <v>902</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D1024" s="1" t="s">
         <v>198</v>
@@ -45661,13 +45661,13 @@
         <v>634</v>
       </c>
       <c r="L1024" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="M1024" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="O1024" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="P1024" s="1" t="s">
         <v>158</v>
@@ -45678,7 +45678,7 @@
         <v>902</v>
       </c>
       <c r="C1025" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D1025" s="1" t="s">
         <v>198</v>
@@ -45708,10 +45708,10 @@
         <v>84</v>
       </c>
       <c r="M1025" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="O1025" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="P1025" s="1" t="s">
         <v>158</v>
@@ -45722,7 +45722,7 @@
         <v>902</v>
       </c>
       <c r="C1026" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D1026" s="1" t="s">
         <v>198</v>
@@ -45752,10 +45752,10 @@
         <v>1061</v>
       </c>
       <c r="M1026" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="O1026" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="P1026" s="1" t="s">
         <v>911</v>
@@ -45763,22 +45763,22 @@
     </row>
     <row r="1027" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1027" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1028" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1028" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1029" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1029" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1030" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1030" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1031" spans="2:16" x14ac:dyDescent="0.2">
@@ -45786,57 +45786,57 @@
         <v>1248</v>
       </c>
       <c r="O1031" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1032" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1032" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1033" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1033" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1034" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1034" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1035" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1035" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1036" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1036" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1037" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1037" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1038" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1038" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1039" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1039" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1040" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O1040" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1041" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1041" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
   </sheetData>

--- a/backend/model_data/TrainingData_5cat_de.xlsx
+++ b/backend/model_data/TrainingData_5cat_de.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15279" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15529" uniqueCount="1579">
   <si>
     <t>User</t>
   </si>
@@ -4705,6 +4705,159 @@
   </si>
   <si>
     <t>Länge VW Sharan (klassisches Familienauto) 4,80</t>
+  </si>
+  <si>
+    <t>So knapp, und doch alles gesagt!</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/ausland/2019-11/bertelsmann-stiftung-studie-europaeische-union-buerger-umweltschutz</t>
+  </si>
+  <si>
+    <t>well said</t>
+  </si>
+  <si>
+    <t>Im allgemeinen haben Sie da recht, aber derartige Studien kommen seit einiger Zeit ziemlich konstant zu eben JENEM Ergebnis, ganz egal, wer sie durchführt</t>
+  </si>
+  <si>
+    <t>Nein, ich bleibe dabei.</t>
+  </si>
+  <si>
+    <t>Watzinger</t>
+  </si>
+  <si>
+    <t>Rofur</t>
+  </si>
+  <si>
+    <t>SpamBot</t>
+  </si>
+  <si>
+    <t>Ich fand das ziemlich deprimierend</t>
+  </si>
+  <si>
+    <t>Hanayagi</t>
+  </si>
+  <si>
+    <t>Allerdings kann auch Medienunterricht die Leute nicht intelligenter machen als sie sind</t>
+  </si>
+  <si>
+    <t>Deontos</t>
+  </si>
+  <si>
+    <t>Und das macht mir für zukünftige Wahlen durchaus Sorgen</t>
+  </si>
+  <si>
+    <t>Sie haben ja Recht</t>
+  </si>
+  <si>
+    <t>EinTollerName</t>
+  </si>
+  <si>
+    <t>Aber das gilt eben für die eigene Meinung und Blase in noch höherem Umfang</t>
+  </si>
+  <si>
+    <t>Stimme ihnen zu, wobei es da auch sehr auf das Thema ankommt</t>
+  </si>
+  <si>
+    <t>Autsch! Das hat gesessen..</t>
+  </si>
+  <si>
+    <t>rock_lobster</t>
+  </si>
+  <si>
+    <t>Das ist das beste Verfahren, das es gibt</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/wirtschaft/2019-11/mietpreisbremse-immobilienmarkt-wohnungsmarkt-wohnungspolitik</t>
+  </si>
+  <si>
+    <t>TXL</t>
+  </si>
+  <si>
+    <t>Finde die Art wie Manuel mit den Menschen umgeht und mit ihnen redet echt super</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vogs4NzqI3Q</t>
+  </si>
+  <si>
+    <t>sexuality</t>
+  </si>
+  <si>
+    <t>SimonJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menschlich und dennoch fragend. </t>
+  </si>
+  <si>
+    <t>Super Reportage!</t>
+  </si>
+  <si>
+    <t>Simon J gebe ich dir absolut recht</t>
+  </si>
+  <si>
+    <t>PPAY Lifestyle</t>
+  </si>
+  <si>
+    <t>Hammer Reporter</t>
+  </si>
+  <si>
+    <t>Ehrlich und offen</t>
+  </si>
+  <si>
+    <t>Was ich gut finde ist das er ihm wirklich sagt wie schwer es ihm manchmal fällt mit ihm das Thema zu besprechen</t>
+  </si>
+  <si>
+    <t>Rainer maria Rilke</t>
+  </si>
+  <si>
+    <t>Sehe ich auch so!!</t>
+  </si>
+  <si>
+    <t>Zockerpycho19</t>
+  </si>
+  <si>
+    <t>einer der wenigen guten reporter vom y kollektiv</t>
+  </si>
+  <si>
+    <t>MrFRDW</t>
+  </si>
+  <si>
+    <t>Sondern konstruktive Kommentare</t>
+  </si>
+  <si>
+    <t>carrotsonmywaywardson</t>
+  </si>
+  <si>
+    <t>Größten Respekt an den freiwilligen Undercover-Mitarbeiter, der alles mit angesehen haben muss.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FvJ3U4NH0X8&amp;list=PLmdw78dzzcvD3dvdKlcnptu29p58wwViU&amp;index=4&amp;t=0s</t>
+  </si>
+  <si>
+    <t>Danke dass diesem Thema Aufmerksamkeit geschenkt wird.</t>
+  </si>
+  <si>
+    <t>Ich bin hin und hergerissen, ob ich mir das Video angucken möchte</t>
+  </si>
+  <si>
+    <t>https://t3n.de/news/ohne-plan-b-gekuendigt-erfahrungen-1225370/?utm_source=pocket-newtab</t>
+  </si>
+  <si>
+    <t>Will ja nicht jammern aber es geht auch anders</t>
+  </si>
+  <si>
+    <t>Ich hab auch ohne Plan B gekündigt</t>
+  </si>
+  <si>
+    <t>Jetzt bin ich arbeitslos, fett und nicht mehr krankenversichert. Ich lebe vom eingemachten, denn ALG gibts nicht</t>
+  </si>
+  <si>
+    <t>0.0.8</t>
+  </si>
+  <si>
+    <t>Henning</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
 </sst>
 </file>
@@ -5110,12 +5263,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U985"/>
+  <dimension ref="B1:U1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="P1" colorId="8" zoomScale="115" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A967" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="O1" colorId="8" zoomScale="115" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A989" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="U985" sqref="U985"/>
+      <selection pane="bottomLeft" activeCell="P1012" sqref="P1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23288,7 +23441,7 @@
         <v>128</v>
       </c>
       <c r="Q367" s="1" t="s">
-        <v>1498</v>
+        <v>5</v>
       </c>
       <c r="R367" s="1" t="s">
         <v>620</v>
@@ -52742,7 +52895,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="977" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O977" t="s">
         <v>1488</v>
       </c>
@@ -52765,7 +52918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="978" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O978" t="s">
         <v>1527</v>
       </c>
@@ -52788,7 +52941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="979" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O979" t="s">
         <v>1489</v>
       </c>
@@ -52811,7 +52964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="980" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O980" t="s">
         <v>1490</v>
       </c>
@@ -52834,7 +52987,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="981" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O981" t="s">
         <v>1491</v>
       </c>
@@ -52857,7 +53010,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="982" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O982" t="s">
         <v>1492</v>
       </c>
@@ -52880,7 +53033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="983" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O983" t="s">
         <v>1493</v>
       </c>
@@ -52903,7 +53056,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="984" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O984" t="s">
         <v>1494</v>
       </c>
@@ -52926,7 +53079,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="985" spans="15:21" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O985" t="s">
         <v>1510</v>
       </c>
@@ -52947,6 +53100,810 @@
       </c>
       <c r="U985" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="986" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C986" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L986" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M986" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O986" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P986" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q986" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="R986" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S986" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="T986" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="U986" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="987" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C987" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M987" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O987" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P987" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q987" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="R987" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="S987" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T987" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="U987" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="988" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C988" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M988" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O988" t="s">
+        <v>1532</v>
+      </c>
+      <c r="P988" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q988" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R988" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S988" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T988" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U988" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="989" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C989" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M989" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O989" t="s">
+        <v>1536</v>
+      </c>
+      <c r="P989" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q989" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="R989" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S989" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T989" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="U989" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="990" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C990" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M990" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O990" t="s">
+        <v>1538</v>
+      </c>
+      <c r="P990" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q990" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="R990" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S990" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="T990" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U990" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="991" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C991" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M991" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O991" t="s">
+        <v>1540</v>
+      </c>
+      <c r="P991" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q991" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="R991" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S991" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="T991" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U991" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="992" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C992" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M992" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O992" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P992" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q992" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R992" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S992" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T992" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U992" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="993" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C993" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M993" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O993" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P993" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q993" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R993" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S993" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T993" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="U993" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="994" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C994" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M994" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O994" t="s">
+        <v>1544</v>
+      </c>
+      <c r="P994" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q994" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="R994" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S994" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T994" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="U994" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="995" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C995" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M995" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O995" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P995" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q995" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="R995" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S995" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="T995" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="U995" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="996" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C996" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="M996" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="O996" t="s">
+        <v>1547</v>
+      </c>
+      <c r="P996" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q996" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R996" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S996" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T996" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="U996" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="997" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C997" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M997" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O997" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P997" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q997" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R997" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S997" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T997" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="U997" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="998" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C998" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M998" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O998" t="s">
+        <v>1554</v>
+      </c>
+      <c r="P998" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q998" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R998" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S998" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T998" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="U998" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="999" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C999" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M999" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O999" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="P999" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q999" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R999" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S999" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T999" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="U999" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1000" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M1000" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O1000" t="s">
+        <v>1556</v>
+      </c>
+      <c r="P1000" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1000" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="R1000" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1000" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T1000" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U1000" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1001" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1001" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M1001" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O1001" t="s">
+        <v>1558</v>
+      </c>
+      <c r="P1001" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1001" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R1001" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S1001" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1001" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1001" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1002" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M1002" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O1002" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P1002" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1002" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R1002" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1002" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="T1002" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1002" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1003" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M1003" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O1003" t="s">
+        <v>1560</v>
+      </c>
+      <c r="P1003" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1003" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R1003" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S1003" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1003" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1003" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1004" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M1004" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O1004" t="s">
+        <v>1562</v>
+      </c>
+      <c r="P1004" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1004" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R1004" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1004" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="T1004" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U1004" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1005" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M1005" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="O1005" t="s">
+        <v>1564</v>
+      </c>
+      <c r="P1005" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1005" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="R1005" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1005" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1005" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U1005" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1006" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="O1006" t="s">
+        <v>1566</v>
+      </c>
+      <c r="P1006" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1006" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="R1006" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1006" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="T1006" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="U1006" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="M1007" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="O1007" t="s">
+        <v>1568</v>
+      </c>
+      <c r="P1007" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1007" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="R1007" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1007" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1007" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="U1007" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="O1008" t="s">
+        <v>1570</v>
+      </c>
+      <c r="P1008" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1008" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R1008" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1008" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1008" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="U1008" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="O1009" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P1009" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1009" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1009" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S1009" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="T1009" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="U1009" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1010" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="M1010" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O1010" t="s">
+        <v>1573</v>
+      </c>
+      <c r="P1010" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1010" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1010" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1010" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="T1010" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1010" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1011" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O1011" t="s">
+        <v>1574</v>
+      </c>
+      <c r="P1011" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C1012" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O1012" t="s">
+        <v>1575</v>
+      </c>
+      <c r="P1012" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
